--- a/excel/main_config.xlsx
+++ b/excel/main_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>游戏内升级时提升的黑洞大小等级</t>
+  </si>
+  <si>
+    <t>首次进入游戏时获得的货币数量</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +708,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,7 +1241,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1346,9 +1352,15 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>

--- a/excel/main_config.xlsx
+++ b/excel/main_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>首次进入游戏时获得的货币数量</t>
+  </si>
+  <si>
+    <t>进入主界面强制弹窗广告的次数间隔</t>
   </si>
 </sst>
 </file>
@@ -691,15 +694,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -707,9 +716,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1241,163 +1255,170 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
